--- a/문경호_20220207_NACL.xlsx
+++ b/문경호_20220207_NACL.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\20220207\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{43BFF998-1E88-44D5-929D-6C931B3E595E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF76A69-B43A-4501-9743-F96C0594394B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F71EBCB8-617F-4540-88E4-2096DC0A4DCE}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>CIDR</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,32 +72,68 @@
     <t>10.0.8.0 - 10.0.11.255</t>
   </si>
   <si>
+    <t>10.0.12.0 - 10.0.13.255</t>
+  </si>
+  <si>
+    <t>10.0.14.0 - 10.0.14.15</t>
+  </si>
+  <si>
+    <t>10.0.14.0/28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.0.15.0 - 10.0.15.15</t>
+  </si>
+  <si>
+    <t>미국동부오하이오</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>10.0.8.0/21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아웃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.0.0.0/22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.0.8.0/23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.0.13.0/24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>10.0.8.0/22</t>
-  </si>
-  <si>
-    <t>10.0.12.0 - 10.0.13.255</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>10.0.12.0/23</t>
-  </si>
-  <si>
-    <t>10.0.14.0 - 10.0.14.15</t>
-  </si>
-  <si>
-    <t>10.0.14.0/28</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.0.15.0 - 10.0.15.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>10.0.15.0/28</t>
-  </si>
-  <si>
-    <t>미국동부오하이오</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -462,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7A876C-DCFC-43CA-B200-14197ECC9D5E}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -477,7 +513,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -500,7 +536,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
@@ -514,7 +550,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
@@ -525,10 +561,10 @@
         <v>500</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -539,10 +575,10 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
@@ -553,14 +589,75 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="D6" t="s">
+      <c r="B8" t="s">
         <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10">
+        <v>80</v>
+      </c>
+      <c r="C10">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B11">
+        <v>443</v>
+      </c>
+      <c r="C11">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12">
+        <v>5000</v>
+      </c>
+      <c r="C12">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13">
+        <v>3306</v>
+      </c>
+      <c r="C13">
+        <v>3306</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/문경호_20220207_NACL.xlsx
+++ b/문경호_20220207_NACL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\20220207\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF76A69-B43A-4501-9743-F96C0594394B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD4E55A8-DD16-44BF-AF1D-8325F85E15AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F71EBCB8-617F-4540-88E4-2096DC0A4DCE}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
   <si>
     <t>CIDR</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -134,6 +134,26 @@
   </si>
   <si>
     <t>10.0.15.0/28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인터넷 - http</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인터넷보안 -https</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flask : TCP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria / MySQL : TCP </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보안그룹</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -498,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7A876C-DCFC-43CA-B200-14197ECC9D5E}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -624,6 +644,9 @@
       <c r="C10">
         <v>80</v>
       </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B11">
@@ -632,6 +655,9 @@
       <c r="C11">
         <v>443</v>
       </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
@@ -643,6 +669,9 @@
       <c r="C12">
         <v>5000</v>
       </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
@@ -653,6 +682,86 @@
       </c>
       <c r="C13">
         <v>3306</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <v>80</v>
+      </c>
+      <c r="C18">
+        <v>80</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B19">
+        <v>443</v>
+      </c>
+      <c r="C19">
+        <v>443</v>
+      </c>
+      <c r="D19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>5000</v>
+      </c>
+      <c r="C20">
+        <v>5000</v>
+      </c>
+      <c r="D20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21">
+        <v>3306</v>
+      </c>
+      <c r="C21">
+        <v>3306</v>
+      </c>
+      <c r="D21" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
